--- a/1_Result_Tables/4_ifo_QoQ_GVA_matched_to_ifoCAST_since_2021/ifo_qoq_matched_error_tables_latest_since_2021_GVA.xlsx
+++ b/1_Result_Tables/4_ifo_QoQ_GVA_matched_to_ifoCAST_since_2021/ifo_qoq_matched_error_tables_latest_since_2021_GVA.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02699086985667682</v>
+        <v>-0.02698669485309508</v>
       </c>
       <c r="C2">
-        <v>0.4698833122123044</v>
+        <v>0.4347110584599287</v>
       </c>
       <c r="D2">
-        <v>0.2815492959788866</v>
+        <v>0.2582489653893563</v>
       </c>
       <c r="E2">
-        <v>0.5306121898136968</v>
+        <v>0.508182019939073</v>
       </c>
       <c r="F2">
-        <v>0.5452886014395765</v>
+        <v>0.5213706822786657</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.4173109138666126</v>
+        <v>0.3926056075262446</v>
       </c>
       <c r="C3">
-        <v>0.6306271292333157</v>
+        <v>0.5860682087796297</v>
       </c>
       <c r="D3">
-        <v>0.6758825089491318</v>
+        <v>0.6279895078619996</v>
       </c>
       <c r="E3">
-        <v>0.8221207386686774</v>
+        <v>0.792457890276827</v>
       </c>
       <c r="F3">
-        <v>0.7301318319312297</v>
+        <v>0.7083247097872002</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.6979763337525478</v>
+        <v>0.658289211196722</v>
       </c>
       <c r="C4">
-        <v>0.7924058781779558</v>
+        <v>0.7393275084707053</v>
       </c>
       <c r="D4">
-        <v>0.9502938457658439</v>
+        <v>0.8838880653841045</v>
       </c>
       <c r="E4">
-        <v>0.9748301625236284</v>
+        <v>0.9401532137817242</v>
       </c>
       <c r="F4">
-        <v>0.7028497294393796</v>
+        <v>0.6918831845362214</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.6730858866735758</v>
+        <v>0.6301452433794297</v>
       </c>
       <c r="C5">
-        <v>0.7469949082008542</v>
+        <v>0.6910958835064263</v>
       </c>
       <c r="D5">
-        <v>0.7330939616070018</v>
+        <v>0.6770036873424849</v>
       </c>
       <c r="E5">
-        <v>0.8562090641934373</v>
+        <v>0.8228023379539493</v>
       </c>
       <c r="F5">
-        <v>0.5477708241798702</v>
+        <v>0.5464266070522937</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.5777965231135175</v>
+        <v>0.5609293215153877</v>
       </c>
       <c r="C6">
-        <v>0.6677274951466955</v>
+        <v>0.635969890021205</v>
       </c>
       <c r="D6">
-        <v>0.6408611938775209</v>
+        <v>0.5954006161806298</v>
       </c>
       <c r="E6">
-        <v>0.8005380652270827</v>
+        <v>0.7716220682307043</v>
       </c>
       <c r="F6">
-        <v>0.5750032243773352</v>
+        <v>0.5484643292655379</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.5216380929468251</v>
+        <v>0.497781246552584</v>
       </c>
       <c r="C7">
-        <v>0.6355322948494396</v>
+        <v>0.594007894527335</v>
       </c>
       <c r="D7">
-        <v>0.532119601925051</v>
+        <v>0.4852508987386884</v>
       </c>
       <c r="E7">
-        <v>0.7294652849348289</v>
+        <v>0.6965995253649606</v>
       </c>
       <c r="F7">
-        <v>0.5307363536363149</v>
+        <v>0.5056987709686329</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4199985796356134</v>
+        <v>0.4027147906846605</v>
       </c>
       <c r="C8">
-        <v>0.5642983923764797</v>
+        <v>0.5256491137464235</v>
       </c>
       <c r="D8">
-        <v>0.4152530780304867</v>
+        <v>0.3760707213903638</v>
       </c>
       <c r="E8">
-        <v>0.6444013330452434</v>
+        <v>0.6132460528942391</v>
       </c>
       <c r="F8">
-        <v>0.5104589070465417</v>
+        <v>0.4813686861270564</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3896626922748109</v>
+        <v>0.3530114966695706</v>
       </c>
       <c r="C9">
-        <v>0.5307463941565741</v>
+        <v>0.4763118611471612</v>
       </c>
       <c r="D9">
-        <v>0.3407890943564083</v>
+        <v>0.2905691678227247</v>
       </c>
       <c r="E9">
-        <v>0.5837714401685031</v>
+        <v>0.5390446807294593</v>
       </c>
       <c r="F9">
-        <v>0.4646990800268238</v>
+        <v>0.4320833917452321</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1774030561337376</v>
+        <v>0.1773128318588165</v>
       </c>
       <c r="C10">
-        <v>0.5025950902731372</v>
+        <v>0.4336731922191779</v>
       </c>
       <c r="D10">
-        <v>0.3377103586668635</v>
+        <v>0.2753392244430637</v>
       </c>
       <c r="E10">
-        <v>0.5811285216429009</v>
+        <v>0.5247277622187183</v>
       </c>
       <c r="F10">
-        <v>0.6389976675401077</v>
+        <v>0.552154172425228</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.002149383720508602</v>
+        <v>0.002592199968439235</v>
       </c>
       <c r="C11">
-        <v>0.6982346845582905</v>
+        <v>0.6934931008693428</v>
       </c>
       <c r="D11">
-        <v>0.4875362945705936</v>
+        <v>0.4809394004540528</v>
       </c>
       <c r="E11">
-        <v>0.6982379927865524</v>
+        <v>0.6934979455297995</v>
       </c>
       <c r="F11">
-        <v>0.9874529606216343</v>
+        <v>0.9807473486615974</v>
       </c>
       <c r="G11">
         <v>2</v>
